--- a/out/May.xlsx
+++ b/out/May.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephthomas/Documents/Areas of Focus/Code Repositories/git/beginners-fitness-tracking-app/out/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C97283-8F2E-A247-8590-9F0EB4213A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>date</t>
   </si>
@@ -43,56 +49,117 @@
     <t>DB Drop Squat</t>
   </si>
   <si>
+    <t>squat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15x12x10</t>
+  </si>
+  <si>
     <t>RA DB Overhead Press</t>
   </si>
   <si>
+    <t>vertical push</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15x12x12</t>
+  </si>
+  <si>
     <t>LA DB Overhead Press</t>
   </si>
   <si>
+    <t xml:space="preserve"> 15x15x15</t>
+  </si>
+  <si>
     <t>Chest Supported Row</t>
   </si>
   <si>
+    <t>horizontal pull</t>
+  </si>
+  <si>
     <t>BW Split Squat</t>
   </si>
   <si>
+    <t>static lunge</t>
+  </si>
+  <si>
+    <t>0x0x0</t>
+  </si>
+  <si>
     <t>DB Incline Water Curls (4x9)</t>
   </si>
   <si>
-    <t>squat</t>
-  </si>
-  <si>
-    <t>vertical push</t>
-  </si>
-  <si>
-    <t>horizontal pull</t>
-  </si>
-  <si>
-    <t>static lunge</t>
-  </si>
-  <si>
     <t>Biceps</t>
   </si>
   <si>
-    <t xml:space="preserve"> 15x12x10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15x12x12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15x15x15</t>
-  </si>
-  <si>
-    <t>0x0x0</t>
+    <t>Pullthrough</t>
+  </si>
+  <si>
+    <t>hinge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15x15x12</t>
+  </si>
+  <si>
+    <t>BW Reverse Lunge</t>
+  </si>
+  <si>
+    <t>dynamic lunge</t>
+  </si>
+  <si>
+    <t>Pushups</t>
+  </si>
+  <si>
+    <t>horizontal push</t>
+  </si>
+  <si>
+    <t>Lat Band PullDowns</t>
+  </si>
+  <si>
+    <t>vertical pull</t>
+  </si>
+  <si>
+    <t>Alt Cross Body HammerCurl (4x12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15x13x15</t>
+  </si>
+  <si>
+    <t>Roll ups</t>
+  </si>
+  <si>
+    <t>Core Flexion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15x13x12</t>
+  </si>
+  <si>
+    <t>R DB Suitcase carry</t>
+  </si>
+  <si>
+    <t>Carry</t>
+  </si>
+  <si>
+    <t>L DB Suitcase carry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1x1x1</t>
+  </si>
+  <si>
+    <t>Thumbs Up Dumbell Bench Press</t>
+  </si>
+  <si>
+    <t>Triceps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,18 +211,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -443,14 +519,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44341</v>
       </c>
@@ -484,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -493,24 +571,24 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>17.33333333333333</v>
+        <v>17.333333333333329</v>
       </c>
       <c r="G2">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44341</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -525,18 +603,18 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44341</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -551,18 +629,18 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44341</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -577,18 +655,18 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44341</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -603,18 +681,18 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44341</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -629,7 +707,241 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>44342</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>23.333333333333329</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>44342</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>44342</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>44342</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>28.333333333333329</v>
+      </c>
+      <c r="G11">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>44342</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>44343</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>60</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>44343</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>44343</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>44343</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/out/May.xlsx
+++ b/out/May.xlsx
@@ -18,8 +18,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -73,14 +73,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
@@ -977,7 +978,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="5" t="n">
         <v>44344</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -1009,7 +1010,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="5" t="n">
         <v>44344</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -1041,7 +1042,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="5" t="n">
         <v>44344</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -1073,7 +1074,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="5" t="n">
         <v>44344</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -1105,7 +1106,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
+      <c r="A21" s="5" t="n">
         <v>44344</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -1137,7 +1138,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="5" t="n">
         <v>44344</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -1165,6 +1166,326 @@
       <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10x8x8</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n">
+        <v>44345</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Skipping</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>cardio</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>60</v>
+      </c>
+      <c r="G23" t="n">
+        <v>60</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n">
+        <v>44345</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Skipping</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>cardio</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0x0x0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n">
+        <v>44345</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PJR Pullover (4x8) 3s</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Triceps</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15x14x6</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n">
+        <v>44346</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Pilates/Stretching</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>30</v>
+      </c>
+      <c r="G26" t="n">
+        <v>30</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n">
+        <v>44346</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Rest</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Rest</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pullthrough</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>hinge</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>38.33333333333334</v>
+      </c>
+      <c r="G28" t="n">
+        <v>45</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15x15x15</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>BW Reverse Lunge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>dynamic lunge</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>60</v>
+      </c>
+      <c r="G29" t="n">
+        <v>60</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15x15x15</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pushups</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>horizontal push</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>40</v>
+      </c>
+      <c r="G30" t="n">
+        <v>60</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15x15x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Lat Band PullDowns</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>vertical pull</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>35</v>
+      </c>
+      <c r="G31" t="n">
+        <v>35</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15x15x15</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Bench Dip (4xFF)+3</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Triceps</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>60</v>
+      </c>
+      <c r="G32" t="n">
+        <v>60</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8x8x8x8</t>
         </is>
       </c>
     </row>
